--- a/Code/Results/Cases/Case_0_242/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_242/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.8757864105796094</v>
+        <v>1.023304355680722</v>
       </c>
       <c r="D2">
-        <v>0.8920266922785236</v>
+        <v>1.024755990762698</v>
       </c>
       <c r="E2">
-        <v>0.8962875405119997</v>
+        <v>1.023621322831219</v>
       </c>
       <c r="F2">
-        <v>0.9069068888270181</v>
+        <v>1.030961747353864</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037746874439577</v>
+        <v>1.025953971324738</v>
       </c>
       <c r="J2">
-        <v>0.9024437434928225</v>
+        <v>1.028485325793956</v>
       </c>
       <c r="K2">
-        <v>0.9052277675068645</v>
+        <v>1.027583560050094</v>
       </c>
       <c r="L2">
-        <v>0.9094095190849325</v>
+        <v>1.02645222249884</v>
       </c>
       <c r="M2">
-        <v>0.9198359347275248</v>
+        <v>1.033771243027158</v>
       </c>
       <c r="N2">
-        <v>0.903725317120323</v>
+        <v>1.029945892925503</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.8980133577223426</v>
+        <v>1.026377924265348</v>
       </c>
       <c r="D3">
-        <v>0.9120400004472465</v>
+        <v>1.027570347497469</v>
       </c>
       <c r="E3">
-        <v>0.9154699791462079</v>
+        <v>1.026314281422187</v>
       </c>
       <c r="F3">
-        <v>0.9265133136455811</v>
+        <v>1.033695583306108</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039234975987439</v>
+        <v>1.026035695987697</v>
       </c>
       <c r="J3">
-        <v>0.921731197124283</v>
+        <v>1.031186329626498</v>
       </c>
       <c r="K3">
-        <v>0.9239374876556131</v>
+        <v>1.030199629062849</v>
       </c>
       <c r="L3">
-        <v>0.9273123182560373</v>
+        <v>1.028946968458538</v>
       </c>
       <c r="M3">
-        <v>0.9381816393782056</v>
+        <v>1.036308386270808</v>
       </c>
       <c r="N3">
-        <v>0.9230401611482455</v>
+        <v>1.032650732493293</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9111060343265632</v>
+        <v>1.028351642016768</v>
       </c>
       <c r="D4">
-        <v>0.9238457233511328</v>
+        <v>1.029377234708941</v>
       </c>
       <c r="E4">
-        <v>0.9267877334937206</v>
+        <v>1.028042987718856</v>
       </c>
       <c r="F4">
-        <v>0.9381029647882025</v>
+        <v>1.035448482401623</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040095857006115</v>
+        <v>1.026084943210484</v>
       </c>
       <c r="J4">
-        <v>0.9330936297553274</v>
+        <v>1.032919445564072</v>
       </c>
       <c r="K4">
-        <v>0.9349593343905612</v>
+        <v>1.031878063888969</v>
       </c>
       <c r="L4">
-        <v>0.9378581972362428</v>
+        <v>1.030547242842385</v>
       </c>
       <c r="M4">
-        <v>0.9490106696835903</v>
+        <v>1.037933842631588</v>
       </c>
       <c r="N4">
-        <v>0.9344187297369152</v>
+        <v>1.034386309654289</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9163542199255288</v>
+        <v>1.029177886260471</v>
       </c>
       <c r="D5">
-        <v>0.9285811538115635</v>
+        <v>1.030133548300643</v>
       </c>
       <c r="E5">
-        <v>0.931327751934262</v>
+        <v>1.02876651900724</v>
       </c>
       <c r="F5">
-        <v>0.9427554943260003</v>
+        <v>1.03618164214123</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040436529411521</v>
+        <v>1.026104781800486</v>
       </c>
       <c r="J5">
-        <v>0.9376478139649721</v>
+        <v>1.033644642379875</v>
       </c>
       <c r="K5">
-        <v>0.939376885645492</v>
+        <v>1.032580336563051</v>
       </c>
       <c r="L5">
-        <v>0.9420847292202736</v>
+        <v>1.03121673533075</v>
       </c>
       <c r="M5">
-        <v>0.9533542785045851</v>
+        <v>1.038613380593452</v>
       </c>
       <c r="N5">
-        <v>0.9389793814105097</v>
+        <v>1.035112536332752</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9172216471595583</v>
+        <v>1.029316413682374</v>
       </c>
       <c r="D6">
-        <v>0.9293639932316946</v>
+        <v>1.030260345793202</v>
       </c>
       <c r="E6">
-        <v>0.9320783007982396</v>
+        <v>1.028887817072206</v>
       </c>
       <c r="F6">
-        <v>0.9435248027253118</v>
+        <v>1.036304525020398</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040492559706383</v>
+        <v>1.026108062210883</v>
       </c>
       <c r="J6">
-        <v>0.9384004926164244</v>
+        <v>1.03376620911936</v>
       </c>
       <c r="K6">
-        <v>0.9401069739881813</v>
+        <v>1.03269805790451</v>
       </c>
       <c r="L6">
-        <v>0.9427832305270142</v>
+        <v>1.031328957226578</v>
       </c>
       <c r="M6">
-        <v>0.9540722976964655</v>
+        <v>1.03872725738656</v>
       </c>
       <c r="N6">
-        <v>0.9397331289519809</v>
+        <v>1.035234275710951</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9111771086149414</v>
+        <v>1.028362695973245</v>
       </c>
       <c r="D7">
-        <v>0.9239098421734259</v>
+        <v>1.029387353456362</v>
       </c>
       <c r="E7">
-        <v>0.9268492053401857</v>
+        <v>1.028052668099066</v>
       </c>
       <c r="F7">
-        <v>0.9381659483048705</v>
+        <v>1.035458293570295</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040100489032915</v>
+        <v>1.026085211686568</v>
       </c>
       <c r="J7">
-        <v>0.9331553079964041</v>
+        <v>1.032929148935927</v>
       </c>
       <c r="K7">
-        <v>0.9350191627452273</v>
+        <v>1.031887460700081</v>
       </c>
       <c r="L7">
-        <v>0.9379154396772729</v>
+        <v>1.030556201339764</v>
       </c>
       <c r="M7">
-        <v>0.9490694853841632</v>
+        <v>1.037942937485345</v>
       </c>
       <c r="N7">
-        <v>0.9344804955681691</v>
+        <v>1.034396026806046</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.8836027888185516</v>
+        <v>1.02434627039831</v>
       </c>
       <c r="D8">
-        <v>0.8990601502140901</v>
+        <v>1.025710111947005</v>
       </c>
       <c r="E8">
-        <v>0.9030283725945998</v>
+        <v>1.024534337488439</v>
       </c>
       <c r="F8">
-        <v>0.9137906066114546</v>
+        <v>1.031889043111982</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038273167881136</v>
+        <v>1.025982346125041</v>
       </c>
       <c r="J8">
-        <v>0.909225576833502</v>
+        <v>1.029401225646124</v>
       </c>
       <c r="K8">
-        <v>0.911806459827032</v>
+        <v>1.028470696753962</v>
       </c>
       <c r="L8">
-        <v>0.9157045375007516</v>
+        <v>1.027298284022155</v>
       </c>
       <c r="M8">
-        <v>0.9262804925482931</v>
+        <v>1.034632098024787</v>
       </c>
       <c r="N8">
-        <v>0.9105167814422372</v>
+        <v>1.030863093460513</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8212338688868098</v>
+        <v>1.017148443357081</v>
       </c>
       <c r="D9">
-        <v>0.8431023235913151</v>
+        <v>1.019117289724561</v>
       </c>
       <c r="E9">
-        <v>0.8494258233117953</v>
+        <v>1.018224570409334</v>
       </c>
       <c r="F9">
-        <v>0.8592972821683306</v>
+        <v>1.025472335588856</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034040293785812</v>
+        <v>1.025773015367911</v>
       </c>
       <c r="J9">
-        <v>0.8551787077610385</v>
+        <v>1.023068350306932</v>
       </c>
       <c r="K9">
-        <v>0.8593831421350524</v>
+        <v>1.022335942857671</v>
       </c>
       <c r="L9">
-        <v>0.8655474052658483</v>
+        <v>1.021446245542153</v>
       </c>
       <c r="M9">
-        <v>0.8751765762085246</v>
+        <v>1.028669642804418</v>
       </c>
       <c r="N9">
-        <v>0.8563931596164279</v>
+        <v>1.024521224711948</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.7579102163180957</v>
+        <v>1.012262056575343</v>
       </c>
       <c r="D10">
-        <v>0.7867882115258232</v>
+        <v>1.014639804573557</v>
       </c>
       <c r="E10">
-        <v>0.795575656804167</v>
+        <v>1.01393809484108</v>
       </c>
       <c r="F10">
-        <v>0.8053250651041968</v>
+        <v>1.021103099696556</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02981461265225</v>
+        <v>1.025614247915147</v>
       </c>
       <c r="J10">
-        <v>0.8006073655920648</v>
+        <v>1.018762143590682</v>
       </c>
       <c r="K10">
-        <v>0.8064792584616124</v>
+        <v>1.018163497759988</v>
       </c>
       <c r="L10">
-        <v>0.8149685329153138</v>
+        <v>1.017464415314611</v>
       </c>
       <c r="M10">
-        <v>0.8243976758807056</v>
+        <v>1.024602781357983</v>
       </c>
       <c r="N10">
-        <v>0.8017443198821541</v>
+        <v>1.020208902688232</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.7130286115009625</v>
+        <v>1.010123779910487</v>
       </c>
       <c r="D11">
-        <v>0.7473036395365804</v>
+        <v>1.012680054577229</v>
       </c>
       <c r="E11">
-        <v>0.7579047673915856</v>
+        <v>1.012061662181994</v>
       </c>
       <c r="F11">
-        <v>0.7682151976831727</v>
+        <v>1.019188134417916</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02695948796772</v>
+        <v>1.025540862763521</v>
       </c>
       <c r="J11">
-        <v>0.7622489600648251</v>
+        <v>1.016876105583028</v>
       </c>
       <c r="K11">
-        <v>0.769327057568902</v>
+        <v>1.016335818013175</v>
       </c>
       <c r="L11">
-        <v>0.7794942041824322</v>
+        <v>1.015719838417401</v>
       </c>
       <c r="M11">
-        <v>0.7893987476850721</v>
+        <v>1.022818702131571</v>
       </c>
       <c r="N11">
-        <v>0.7633314410192948</v>
+        <v>1.018320186290276</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.6862504198723891</v>
+        <v>1.009326018064798</v>
       </c>
       <c r="D12">
-        <v>0.7239650087322954</v>
+        <v>1.011948839280888</v>
       </c>
       <c r="E12">
-        <v>0.7356826890352325</v>
+        <v>1.011361491515488</v>
       </c>
       <c r="F12">
-        <v>0.7466401672714734</v>
+        <v>1.018473247778887</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025331959486134</v>
+        <v>1.025512900300163</v>
       </c>
       <c r="J12">
-        <v>0.739537674026696</v>
+        <v>1.01617220441077</v>
       </c>
       <c r="K12">
-        <v>0.7473498571059387</v>
+        <v>1.015653663059217</v>
       </c>
       <c r="L12">
-        <v>0.7585347466683888</v>
+        <v>1.015068641552628</v>
       </c>
       <c r="M12">
-        <v>0.7690155183781962</v>
+        <v>1.022152431359983</v>
       </c>
       <c r="N12">
-        <v>0.7405879023499706</v>
+        <v>1.017615285497614</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.6930880340538483</v>
+        <v>1.009497301845575</v>
       </c>
       <c r="D13">
-        <v>0.7299067099229719</v>
+        <v>1.012105837807384</v>
       </c>
       <c r="E13">
-        <v>0.7413365547287475</v>
+        <v>1.011511826392006</v>
       </c>
       <c r="F13">
-        <v>0.7521045170669843</v>
+        <v>1.018626757497612</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025741567456091</v>
+        <v>1.02551893031707</v>
       </c>
       <c r="J13">
-        <v>0.7453225242654173</v>
+        <v>1.016323346905687</v>
       </c>
       <c r="K13">
-        <v>0.7529460517152182</v>
+        <v>1.015800137720754</v>
       </c>
       <c r="L13">
-        <v>0.7638697165885726</v>
+        <v>1.015208471443684</v>
       </c>
       <c r="M13">
-        <v>0.7741807833712447</v>
+        <v>1.022295512765667</v>
       </c>
       <c r="N13">
-        <v>0.7463809677395628</v>
+        <v>1.017766642632211</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.7111886478626461</v>
+        <v>1.010057909108153</v>
       </c>
       <c r="D14">
-        <v>0.7456942808572129</v>
+        <v>1.012619679687176</v>
       </c>
       <c r="E14">
-        <v>0.7563712364673909</v>
+        <v>1.012003851443029</v>
       </c>
       <c r="F14">
-        <v>0.7667181554120995</v>
+        <v>1.01912911546681</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026845699832964</v>
+        <v>1.025538565780497</v>
       </c>
       <c r="J14">
-        <v>0.7606838095733187</v>
+        <v>1.016817989816017</v>
       </c>
       <c r="K14">
-        <v>0.767811957735232</v>
+        <v>1.016279498359905</v>
       </c>
       <c r="L14">
-        <v>0.7780485958841763</v>
+        <v>1.015666075903814</v>
       </c>
       <c r="M14">
-        <v>0.7879853104396016</v>
+        <v>1.022763701771548</v>
       </c>
       <c r="N14">
-        <v>0.7617640678345653</v>
+        <v>1.018261987992209</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.7203600643577296</v>
+        <v>1.01040284829514</v>
       </c>
       <c r="D15">
-        <v>0.7537240838432732</v>
+        <v>1.012935836555204</v>
       </c>
       <c r="E15">
-        <v>0.7640243034866047</v>
+        <v>1.012306579241695</v>
       </c>
       <c r="F15">
-        <v>0.7742004680844174</v>
+        <v>1.019438156342269</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027415610067248</v>
+        <v>1.025550570337902</v>
       </c>
       <c r="J15">
-        <v>0.7684916873365115</v>
+        <v>1.017122308914976</v>
       </c>
       <c r="K15">
-        <v>0.7753708754006712</v>
+        <v>1.016574410844008</v>
       </c>
       <c r="L15">
-        <v>0.7852617278800581</v>
+        <v>1.015947595766584</v>
       </c>
       <c r="M15">
-        <v>0.7950484926721404</v>
+        <v>1.02305169005297</v>
       </c>
       <c r="N15">
-        <v>0.7695830336797581</v>
+        <v>1.018566739259195</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.7602664640574993</v>
+        <v>1.012403482388758</v>
       </c>
       <c r="D16">
-        <v>0.7888721229658161</v>
+        <v>1.014769414222678</v>
       </c>
       <c r="E16">
-        <v>0.79756609196802</v>
+        <v>1.014062188277261</v>
       </c>
       <c r="F16">
-        <v>0.8073023033965886</v>
+        <v>1.021229693760052</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02996832063617</v>
+        <v>1.025619019926909</v>
       </c>
       <c r="J16">
-        <v>0.8026296663424896</v>
+        <v>1.018886851868282</v>
       </c>
       <c r="K16">
-        <v>0.8084389085557493</v>
+        <v>1.018284342526151</v>
       </c>
       <c r="L16">
-        <v>0.8168409078137326</v>
+        <v>1.017579757157237</v>
       </c>
       <c r="M16">
-        <v>0.8262604759115328</v>
+        <v>1.024720688489318</v>
       </c>
       <c r="N16">
-        <v>0.8037694925316053</v>
+        <v>1.02033378806589</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.7792295408166803</v>
+        <v>1.013652322690221</v>
       </c>
       <c r="D17">
-        <v>0.8056785193281149</v>
+        <v>1.015913866935664</v>
       </c>
       <c r="E17">
-        <v>0.8136257188453192</v>
+        <v>1.01515790009534</v>
       </c>
       <c r="F17">
-        <v>0.8233090929908488</v>
+        <v>1.02234722182933</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031217002710511</v>
+        <v>1.025660709898166</v>
       </c>
       <c r="J17">
-        <v>0.8189312461365668</v>
+        <v>1.019987881277438</v>
       </c>
       <c r="K17">
-        <v>0.8242382500212031</v>
+        <v>1.019351235565192</v>
       </c>
       <c r="L17">
-        <v>0.8319403140558769</v>
+        <v>1.018598021824013</v>
       </c>
       <c r="M17">
-        <v>0.8413337746441312</v>
+        <v>1.025761343181507</v>
       </c>
       <c r="N17">
-        <v>0.8200942224388076</v>
+        <v>1.021436381063098</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.7890579415018244</v>
+        <v>1.014378594722229</v>
       </c>
       <c r="D18">
-        <v>0.8144122396996767</v>
+        <v>1.016579392344883</v>
       </c>
       <c r="E18">
-        <v>0.8219760117896306</v>
+        <v>1.015795054145993</v>
       </c>
       <c r="F18">
-        <v>0.8316675541615535</v>
+        <v>1.022996840591537</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031871497601294</v>
+        <v>1.025684579972083</v>
       </c>
       <c r="J18">
-        <v>0.8273969994057702</v>
+        <v>1.020628034775723</v>
       </c>
       <c r="K18">
-        <v>0.8324449345622237</v>
+        <v>1.019971519974757</v>
       </c>
       <c r="L18">
-        <v>0.8397857859460492</v>
+        <v>1.019189996325712</v>
       </c>
       <c r="M18">
-        <v>0.8491997902218311</v>
+        <v>1.026366118365486</v>
       </c>
       <c r="N18">
-        <v>0.8285719980486886</v>
+        <v>1.022077443652776</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.7922443807666955</v>
+        <v>1.014625873286017</v>
       </c>
       <c r="D19">
-        <v>0.8172469542095628</v>
+        <v>1.01680598138987</v>
       </c>
       <c r="E19">
-        <v>0.8246869090473221</v>
+        <v>1.016011979032947</v>
       </c>
       <c r="F19">
-        <v>0.8343860414138986</v>
+        <v>1.023217971406965</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03208462775298</v>
+        <v>1.025692643447821</v>
       </c>
       <c r="J19">
-        <v>0.8301438991930365</v>
+        <v>1.020845965153528</v>
       </c>
       <c r="K19">
-        <v>0.8351080026055407</v>
+        <v>1.020182682540602</v>
       </c>
       <c r="L19">
-        <v>0.8423319503611043</v>
+        <v>1.019391514986951</v>
       </c>
       <c r="M19">
-        <v>0.8517573706533204</v>
+        <v>1.026571957726162</v>
       </c>
       <c r="N19">
-        <v>0.8313227987487268</v>
+        <v>1.022295683516715</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.7773344886122221</v>
+        <v>1.013518557880906</v>
       </c>
       <c r="D20">
-        <v>0.8039962903408804</v>
+        <v>1.015791287260924</v>
       </c>
       <c r="E20">
-        <v>0.8120176932062535</v>
+        <v>1.01504054378043</v>
       </c>
       <c r="F20">
-        <v>0.8217022066248751</v>
+        <v>1.022227551751431</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031091344030505</v>
+        <v>1.025656283243179</v>
       </c>
       <c r="J20">
-        <v>0.817300185771815</v>
+        <v>1.019869965030166</v>
       </c>
       <c r="K20">
-        <v>0.8226572327257536</v>
+        <v>1.019236977450287</v>
       </c>
       <c r="L20">
-        <v>0.8304290589726948</v>
+        <v>1.018488975431174</v>
       </c>
       <c r="M20">
-        <v>0.8398211655570654</v>
+        <v>1.025649921329332</v>
       </c>
       <c r="N20">
-        <v>0.8184608457812523</v>
+        <v>1.021318297361228</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.7063602245237073</v>
+        <v>1.009892922296314</v>
       </c>
       <c r="D21">
-        <v>0.7414748738037334</v>
+        <v>1.012468457554481</v>
       </c>
       <c r="E21">
-        <v>0.752351420875098</v>
+        <v>1.011859051104763</v>
       </c>
       <c r="F21">
-        <v>0.762799527704214</v>
+        <v>1.018981283457426</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026548431994066</v>
+        <v>1.025532803117369</v>
       </c>
       <c r="J21">
-        <v>0.7565796546761797</v>
+        <v>1.016672423099287</v>
       </c>
       <c r="K21">
-        <v>0.7638394043715909</v>
+        <v>1.016138429948013</v>
       </c>
       <c r="L21">
-        <v>0.7742586974173448</v>
+        <v>1.015531411618825</v>
       </c>
       <c r="M21">
-        <v>0.7842849098598244</v>
+        <v>1.022625931653298</v>
       </c>
       <c r="N21">
-        <v>0.7576540845667191</v>
+        <v>1.018116214554045</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7063602245237073</v>
+        <v>1.007592957184883</v>
       </c>
       <c r="D22">
-        <v>0.7414748738037334</v>
+        <v>1.010360237946963</v>
       </c>
       <c r="E22">
-        <v>0.752351420875098</v>
+        <v>1.009840258897975</v>
       </c>
       <c r="F22">
-        <v>0.762799527704214</v>
+        <v>1.016919432199577</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026548431994066</v>
+        <v>1.025451089664297</v>
       </c>
       <c r="J22">
-        <v>0.7565796546761797</v>
+        <v>1.014642597391404</v>
       </c>
       <c r="K22">
-        <v>0.7638394043715909</v>
+        <v>1.014171249072994</v>
       </c>
       <c r="L22">
-        <v>0.7742586974173448</v>
+        <v>1.013653396066155</v>
       </c>
       <c r="M22">
-        <v>0.7842849098598244</v>
+        <v>1.020703832652238</v>
       </c>
       <c r="N22">
-        <v>0.7576540845667191</v>
+        <v>1.016083506260832</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.7063602245237073</v>
+        <v>1.008814192145682</v>
       </c>
       <c r="D23">
-        <v>0.7414748738037334</v>
+        <v>1.01147969167195</v>
       </c>
       <c r="E23">
-        <v>0.752351420875098</v>
+        <v>1.010912250239421</v>
       </c>
       <c r="F23">
-        <v>0.762799527704214</v>
+        <v>1.018014470355108</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026548431994066</v>
+        <v>1.025494796394572</v>
       </c>
       <c r="J23">
-        <v>0.7565796546761797</v>
+        <v>1.015720528240352</v>
       </c>
       <c r="K23">
-        <v>0.7638394043715909</v>
+        <v>1.015215931313222</v>
       </c>
       <c r="L23">
-        <v>0.7742586974173448</v>
+        <v>1.014650758750639</v>
       </c>
       <c r="M23">
-        <v>0.7842849098598244</v>
+        <v>1.021724783882005</v>
       </c>
       <c r="N23">
-        <v>0.7576540845667191</v>
+        <v>1.017162967895226</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.7063602245237073</v>
+        <v>1.013579007092239</v>
       </c>
       <c r="D24">
-        <v>0.7414748738037334</v>
+        <v>1.015846681956855</v>
       </c>
       <c r="E24">
-        <v>0.752351420875098</v>
+        <v>1.01509357808482</v>
       </c>
       <c r="F24">
-        <v>0.762799527704214</v>
+        <v>1.02228163235042</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026548431994066</v>
+        <v>1.025658284838829</v>
       </c>
       <c r="J24">
-        <v>0.7565796546761797</v>
+        <v>1.019923252659521</v>
       </c>
       <c r="K24">
-        <v>0.7638394043715909</v>
+        <v>1.019288611997271</v>
       </c>
       <c r="L24">
-        <v>0.7742586974173448</v>
+        <v>1.018538254858121</v>
       </c>
       <c r="M24">
-        <v>0.7842849098598244</v>
+        <v>1.025700274924807</v>
       </c>
       <c r="N24">
-        <v>0.7576540845667191</v>
+        <v>1.02137166066513</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.7063602245237073</v>
+        <v>1.019024216851104</v>
       </c>
       <c r="D25">
-        <v>0.7414748738037334</v>
+        <v>1.020835722515038</v>
       </c>
       <c r="E25">
-        <v>0.752351420875098</v>
+        <v>1.01986944020637</v>
       </c>
       <c r="F25">
-        <v>0.762799527704214</v>
+        <v>1.02714688100957</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026548431994066</v>
+        <v>1.025830493025523</v>
       </c>
       <c r="J25">
-        <v>0.7565796546761797</v>
+        <v>1.024719944956365</v>
       </c>
       <c r="K25">
-        <v>0.7638394043715909</v>
+        <v>1.023936035037029</v>
       </c>
       <c r="L25">
-        <v>0.7742586974173448</v>
+        <v>1.022972891004643</v>
       </c>
       <c r="M25">
-        <v>0.7842849098598244</v>
+        <v>1.03022685523408</v>
       </c>
       <c r="N25">
-        <v>0.7576540845667191</v>
+        <v>1.026175164815224</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_242/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_242/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023304355680722</v>
+        <v>0.8757864105796058</v>
       </c>
       <c r="D2">
-        <v>1.024755990762698</v>
+        <v>0.8920266922785203</v>
       </c>
       <c r="E2">
-        <v>1.023621322831219</v>
+        <v>0.8962875405119967</v>
       </c>
       <c r="F2">
-        <v>1.030961747353864</v>
+        <v>0.9069068888270158</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025953971324738</v>
+        <v>1.037746874439577</v>
       </c>
       <c r="J2">
-        <v>1.028485325793956</v>
+        <v>0.9024437434928194</v>
       </c>
       <c r="K2">
-        <v>1.027583560050094</v>
+        <v>0.9052277675068611</v>
       </c>
       <c r="L2">
-        <v>1.02645222249884</v>
+        <v>0.9094095190849296</v>
       </c>
       <c r="M2">
-        <v>1.033771243027158</v>
+        <v>0.9198359347275223</v>
       </c>
       <c r="N2">
-        <v>1.029945892925503</v>
+        <v>0.9037253171203198</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.026377924265348</v>
+        <v>0.8980133577223409</v>
       </c>
       <c r="D3">
-        <v>1.027570347497469</v>
+        <v>0.9120400004472448</v>
       </c>
       <c r="E3">
-        <v>1.026314281422187</v>
+        <v>0.9154699791462063</v>
       </c>
       <c r="F3">
-        <v>1.033695583306108</v>
+        <v>0.92651331364558</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026035695987697</v>
+        <v>1.039234975987439</v>
       </c>
       <c r="J3">
-        <v>1.031186329626498</v>
+        <v>0.9217311971242815</v>
       </c>
       <c r="K3">
-        <v>1.030199629062849</v>
+        <v>0.9239374876556115</v>
       </c>
       <c r="L3">
-        <v>1.028946968458538</v>
+        <v>0.9273123182560358</v>
       </c>
       <c r="M3">
-        <v>1.036308386270808</v>
+        <v>0.9381816393782044</v>
       </c>
       <c r="N3">
-        <v>1.032650732493293</v>
+        <v>0.9230401611482438</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028351642016768</v>
+        <v>0.9111060343265628</v>
       </c>
       <c r="D4">
-        <v>1.029377234708941</v>
+        <v>0.9238457233511327</v>
       </c>
       <c r="E4">
-        <v>1.028042987718856</v>
+        <v>0.9267877334937205</v>
       </c>
       <c r="F4">
-        <v>1.035448482401623</v>
+        <v>0.938102964788202</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026084943210484</v>
+        <v>1.040095857006114</v>
       </c>
       <c r="J4">
-        <v>1.032919445564072</v>
+        <v>0.9330936297553269</v>
       </c>
       <c r="K4">
-        <v>1.031878063888969</v>
+        <v>0.9349593343905609</v>
       </c>
       <c r="L4">
-        <v>1.030547242842385</v>
+        <v>0.9378581972362426</v>
       </c>
       <c r="M4">
-        <v>1.037933842631588</v>
+        <v>0.9490106696835897</v>
       </c>
       <c r="N4">
-        <v>1.034386309654289</v>
+        <v>0.9344187297369149</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029177886260471</v>
+        <v>0.9163542199255297</v>
       </c>
       <c r="D5">
-        <v>1.030133548300643</v>
+        <v>0.9285811538115647</v>
       </c>
       <c r="E5">
-        <v>1.02876651900724</v>
+        <v>0.9313277519342628</v>
       </c>
       <c r="F5">
-        <v>1.03618164214123</v>
+        <v>0.942755494326001</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026104781800486</v>
+        <v>1.040436529411521</v>
       </c>
       <c r="J5">
-        <v>1.033644642379875</v>
+        <v>0.937647813964973</v>
       </c>
       <c r="K5">
-        <v>1.032580336563051</v>
+        <v>0.9393768856454933</v>
       </c>
       <c r="L5">
-        <v>1.03121673533075</v>
+        <v>0.9420847292202744</v>
       </c>
       <c r="M5">
-        <v>1.038613380593452</v>
+        <v>0.9533542785045861</v>
       </c>
       <c r="N5">
-        <v>1.035112536332752</v>
+        <v>0.9389793814105107</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029316413682374</v>
+        <v>0.9172216471595572</v>
       </c>
       <c r="D6">
-        <v>1.030260345793202</v>
+        <v>0.9293639932316938</v>
       </c>
       <c r="E6">
-        <v>1.028887817072206</v>
+        <v>0.9320783007982384</v>
       </c>
       <c r="F6">
-        <v>1.036304525020398</v>
+        <v>0.9435248027253113</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026108062210883</v>
+        <v>1.040492559706383</v>
       </c>
       <c r="J6">
-        <v>1.03376620911936</v>
+        <v>0.9384004926164234</v>
       </c>
       <c r="K6">
-        <v>1.03269805790451</v>
+        <v>0.9401069739881803</v>
       </c>
       <c r="L6">
-        <v>1.031328957226578</v>
+        <v>0.9427832305270131</v>
       </c>
       <c r="M6">
-        <v>1.03872725738656</v>
+        <v>0.9540722976964648</v>
       </c>
       <c r="N6">
-        <v>1.035234275710951</v>
+        <v>0.9397331289519798</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028362695973245</v>
+        <v>0.9111771086149408</v>
       </c>
       <c r="D7">
-        <v>1.029387353456362</v>
+        <v>0.9239098421734252</v>
       </c>
       <c r="E7">
-        <v>1.028052668099066</v>
+        <v>0.9268492053401853</v>
       </c>
       <c r="F7">
-        <v>1.035458293570295</v>
+        <v>0.93816594830487</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026085211686568</v>
+        <v>1.040100489032915</v>
       </c>
       <c r="J7">
-        <v>1.032929148935927</v>
+        <v>0.9331553079964036</v>
       </c>
       <c r="K7">
-        <v>1.031887460700081</v>
+        <v>0.9350191627452268</v>
       </c>
       <c r="L7">
-        <v>1.030556201339764</v>
+        <v>0.9379154396772724</v>
       </c>
       <c r="M7">
-        <v>1.037942937485345</v>
+        <v>0.9490694853841629</v>
       </c>
       <c r="N7">
-        <v>1.034396026806046</v>
+        <v>0.9344804955681684</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02434627039831</v>
+        <v>0.8836027888185488</v>
       </c>
       <c r="D8">
-        <v>1.025710111947005</v>
+        <v>0.8990601502140871</v>
       </c>
       <c r="E8">
-        <v>1.024534337488439</v>
+        <v>0.9030283725945973</v>
       </c>
       <c r="F8">
-        <v>1.031889043111982</v>
+        <v>0.9137906066114531</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025982346125041</v>
+        <v>1.038273167881136</v>
       </c>
       <c r="J8">
-        <v>1.029401225646124</v>
+        <v>0.9092255768334992</v>
       </c>
       <c r="K8">
-        <v>1.028470696753962</v>
+        <v>0.911806459827029</v>
       </c>
       <c r="L8">
-        <v>1.027298284022155</v>
+        <v>0.9157045375007492</v>
       </c>
       <c r="M8">
-        <v>1.034632098024787</v>
+        <v>0.9262804925482916</v>
       </c>
       <c r="N8">
-        <v>1.030863093460513</v>
+        <v>0.910516781442234</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017148443357081</v>
+        <v>0.8212338688868143</v>
       </c>
       <c r="D9">
-        <v>1.019117289724561</v>
+        <v>0.8431023235913191</v>
       </c>
       <c r="E9">
-        <v>1.018224570409334</v>
+        <v>0.8494258233117993</v>
       </c>
       <c r="F9">
-        <v>1.025472335588856</v>
+        <v>0.8592972821683342</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025773015367911</v>
+        <v>1.034040293785812</v>
       </c>
       <c r="J9">
-        <v>1.023068350306932</v>
+        <v>0.8551787077610427</v>
       </c>
       <c r="K9">
-        <v>1.022335942857671</v>
+        <v>0.8593831421350563</v>
       </c>
       <c r="L9">
-        <v>1.021446245542153</v>
+        <v>0.8655474052658521</v>
       </c>
       <c r="M9">
-        <v>1.028669642804418</v>
+        <v>0.8751765762085281</v>
       </c>
       <c r="N9">
-        <v>1.024521224711948</v>
+        <v>0.8563931596164321</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012262056575343</v>
+        <v>0.7579102163181003</v>
       </c>
       <c r="D10">
-        <v>1.014639804573557</v>
+        <v>0.7867882115258272</v>
       </c>
       <c r="E10">
-        <v>1.01393809484108</v>
+        <v>0.7955756568041705</v>
       </c>
       <c r="F10">
-        <v>1.021103099696556</v>
+        <v>0.8053250651041998</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025614247915147</v>
+        <v>1.02981461265225</v>
       </c>
       <c r="J10">
-        <v>1.018762143590682</v>
+        <v>0.8006073655920691</v>
       </c>
       <c r="K10">
-        <v>1.018163497759988</v>
+        <v>0.8064792584616162</v>
       </c>
       <c r="L10">
-        <v>1.017464415314611</v>
+        <v>0.8149685329153176</v>
       </c>
       <c r="M10">
-        <v>1.024602781357983</v>
+        <v>0.8243976758807083</v>
       </c>
       <c r="N10">
-        <v>1.020208902688232</v>
+        <v>0.8017443198821581</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.010123779910487</v>
+        <v>0.7130286115009675</v>
       </c>
       <c r="D11">
-        <v>1.012680054577229</v>
+        <v>0.747303639536585</v>
       </c>
       <c r="E11">
-        <v>1.012061662181994</v>
+        <v>0.75790476739159</v>
       </c>
       <c r="F11">
-        <v>1.019188134417916</v>
+        <v>0.7682151976831767</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025540862763521</v>
+        <v>1.026959487967721</v>
       </c>
       <c r="J11">
-        <v>1.016876105583028</v>
+        <v>0.7622489600648295</v>
       </c>
       <c r="K11">
-        <v>1.016335818013175</v>
+        <v>0.7693270575689062</v>
       </c>
       <c r="L11">
-        <v>1.015719838417401</v>
+        <v>0.7794942041824365</v>
       </c>
       <c r="M11">
-        <v>1.022818702131571</v>
+        <v>0.7893987476850758</v>
       </c>
       <c r="N11">
-        <v>1.018320186290276</v>
+        <v>0.7633314410192992</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.009326018064798</v>
+        <v>0.6862504198723847</v>
       </c>
       <c r="D12">
-        <v>1.011948839280888</v>
+        <v>0.7239650087322914</v>
       </c>
       <c r="E12">
-        <v>1.011361491515488</v>
+        <v>0.7356826890352288</v>
       </c>
       <c r="F12">
-        <v>1.018473247778887</v>
+        <v>0.74664016727147</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025512900300163</v>
+        <v>1.025331959486133</v>
       </c>
       <c r="J12">
-        <v>1.01617220441077</v>
+        <v>0.739537674026692</v>
       </c>
       <c r="K12">
-        <v>1.015653663059217</v>
+        <v>0.747349857105935</v>
       </c>
       <c r="L12">
-        <v>1.015068641552628</v>
+        <v>0.7585347466683854</v>
       </c>
       <c r="M12">
-        <v>1.022152431359983</v>
+        <v>0.7690155183781928</v>
       </c>
       <c r="N12">
-        <v>1.017615285497614</v>
+        <v>0.740587902349967</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009497301845575</v>
+        <v>0.6930880340538593</v>
       </c>
       <c r="D13">
-        <v>1.012105837807384</v>
+        <v>0.7299067099229815</v>
       </c>
       <c r="E13">
-        <v>1.011511826392006</v>
+        <v>0.7413365547287568</v>
       </c>
       <c r="F13">
-        <v>1.018626757497612</v>
+        <v>0.7521045170669924</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02551893031707</v>
+        <v>1.025741567456091</v>
       </c>
       <c r="J13">
-        <v>1.016323346905687</v>
+        <v>0.7453225242654269</v>
       </c>
       <c r="K13">
-        <v>1.015800137720754</v>
+        <v>0.7529460517152272</v>
       </c>
       <c r="L13">
-        <v>1.015208471443684</v>
+        <v>0.7638697165885814</v>
       </c>
       <c r="M13">
-        <v>1.022295512765667</v>
+        <v>0.7741807833712525</v>
       </c>
       <c r="N13">
-        <v>1.017766642632211</v>
+        <v>0.7463809677395721</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010057909108153</v>
+        <v>0.7111886478626452</v>
       </c>
       <c r="D14">
-        <v>1.012619679687176</v>
+        <v>0.7456942808572122</v>
       </c>
       <c r="E14">
-        <v>1.012003851443029</v>
+        <v>0.7563712364673904</v>
       </c>
       <c r="F14">
-        <v>1.01912911546681</v>
+        <v>0.7667181554120986</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025538565780497</v>
+        <v>1.026845699832964</v>
       </c>
       <c r="J14">
-        <v>1.016817989816017</v>
+        <v>0.7606838095733182</v>
       </c>
       <c r="K14">
-        <v>1.016279498359905</v>
+        <v>0.7678119577352314</v>
       </c>
       <c r="L14">
-        <v>1.015666075903814</v>
+        <v>0.778048595884176</v>
       </c>
       <c r="M14">
-        <v>1.022763701771548</v>
+        <v>0.7879853104396009</v>
       </c>
       <c r="N14">
-        <v>1.018261987992209</v>
+        <v>0.7617640678345646</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01040284829514</v>
+        <v>0.7203600643577381</v>
       </c>
       <c r="D15">
-        <v>1.012935836555204</v>
+        <v>0.7537240838432806</v>
       </c>
       <c r="E15">
-        <v>1.012306579241695</v>
+        <v>0.7640243034866121</v>
       </c>
       <c r="F15">
-        <v>1.019438156342269</v>
+        <v>0.7742004680844239</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025550570337902</v>
+        <v>1.027415610067248</v>
       </c>
       <c r="J15">
-        <v>1.017122308914976</v>
+        <v>0.7684916873365191</v>
       </c>
       <c r="K15">
-        <v>1.016574410844008</v>
+        <v>0.7753708754006785</v>
       </c>
       <c r="L15">
-        <v>1.015947595766584</v>
+        <v>0.7852617278800652</v>
       </c>
       <c r="M15">
-        <v>1.02305169005297</v>
+        <v>0.7950484926721466</v>
       </c>
       <c r="N15">
-        <v>1.018566739259195</v>
+        <v>0.7695830336797655</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012403482388758</v>
+        <v>0.7602664640574979</v>
       </c>
       <c r="D16">
-        <v>1.014769414222678</v>
+        <v>0.788872122965815</v>
       </c>
       <c r="E16">
-        <v>1.014062188277261</v>
+        <v>0.7975660919680189</v>
       </c>
       <c r="F16">
-        <v>1.021229693760052</v>
+        <v>0.8073023033965879</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025619019926909</v>
+        <v>1.02996832063617</v>
       </c>
       <c r="J16">
-        <v>1.018886851868282</v>
+        <v>0.8026296663424883</v>
       </c>
       <c r="K16">
-        <v>1.018284342526151</v>
+        <v>0.8084389085557484</v>
       </c>
       <c r="L16">
-        <v>1.017579757157237</v>
+        <v>0.8168409078137316</v>
       </c>
       <c r="M16">
-        <v>1.024720688489318</v>
+        <v>0.8262604759115323</v>
       </c>
       <c r="N16">
-        <v>1.02033378806589</v>
+        <v>0.8037694925316041</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013652322690221</v>
+        <v>0.7792295408166768</v>
       </c>
       <c r="D17">
-        <v>1.015913866935664</v>
+        <v>0.8056785193281119</v>
       </c>
       <c r="E17">
-        <v>1.01515790009534</v>
+        <v>0.8136257188453163</v>
       </c>
       <c r="F17">
-        <v>1.02234722182933</v>
+        <v>0.8233090929908469</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025660709898166</v>
+        <v>1.031217002710511</v>
       </c>
       <c r="J17">
-        <v>1.019987881277438</v>
+        <v>0.8189312461365639</v>
       </c>
       <c r="K17">
-        <v>1.019351235565192</v>
+        <v>0.8242382500212002</v>
       </c>
       <c r="L17">
-        <v>1.018598021824013</v>
+        <v>0.8319403140558742</v>
       </c>
       <c r="M17">
-        <v>1.025761343181507</v>
+        <v>0.8413337746441292</v>
       </c>
       <c r="N17">
-        <v>1.021436381063098</v>
+        <v>0.8200942224388045</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014378594722229</v>
+        <v>0.7890579415018235</v>
       </c>
       <c r="D18">
-        <v>1.016579392344883</v>
+        <v>0.8144122396996755</v>
       </c>
       <c r="E18">
-        <v>1.015795054145993</v>
+        <v>0.82197601178963</v>
       </c>
       <c r="F18">
-        <v>1.022996840591537</v>
+        <v>0.8316675541615526</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025684579972083</v>
+        <v>1.031871497601294</v>
       </c>
       <c r="J18">
-        <v>1.020628034775723</v>
+        <v>0.8273969994057693</v>
       </c>
       <c r="K18">
-        <v>1.019971519974757</v>
+        <v>0.8324449345622227</v>
       </c>
       <c r="L18">
-        <v>1.019189996325712</v>
+        <v>0.8397857859460486</v>
       </c>
       <c r="M18">
-        <v>1.026366118365486</v>
+        <v>0.8491997902218301</v>
       </c>
       <c r="N18">
-        <v>1.022077443652776</v>
+        <v>0.8285719980486879</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014625873286017</v>
+        <v>0.7922443807666947</v>
       </c>
       <c r="D19">
-        <v>1.01680598138987</v>
+        <v>0.8172469542095619</v>
       </c>
       <c r="E19">
-        <v>1.016011979032947</v>
+        <v>0.8246869090473213</v>
       </c>
       <c r="F19">
-        <v>1.023217971406965</v>
+        <v>0.834386041413898</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025692643447821</v>
+        <v>1.03208462775298</v>
       </c>
       <c r="J19">
-        <v>1.020845965153528</v>
+        <v>0.8301438991930358</v>
       </c>
       <c r="K19">
-        <v>1.020182682540602</v>
+        <v>0.83510800260554</v>
       </c>
       <c r="L19">
-        <v>1.019391514986951</v>
+        <v>0.8423319503611039</v>
       </c>
       <c r="M19">
-        <v>1.026571957726162</v>
+        <v>0.8517573706533197</v>
       </c>
       <c r="N19">
-        <v>1.022295683516715</v>
+        <v>0.8313227987487263</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013518557880906</v>
+        <v>0.7773344886122168</v>
       </c>
       <c r="D20">
-        <v>1.015791287260924</v>
+        <v>0.8039962903408756</v>
       </c>
       <c r="E20">
-        <v>1.01504054378043</v>
+        <v>0.8120176932062489</v>
       </c>
       <c r="F20">
-        <v>1.022227551751431</v>
+        <v>0.8217022066248714</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025656283243179</v>
+        <v>1.031091344030505</v>
       </c>
       <c r="J20">
-        <v>1.019869965030166</v>
+        <v>0.8173001857718102</v>
       </c>
       <c r="K20">
-        <v>1.019236977450287</v>
+        <v>0.8226572327257492</v>
       </c>
       <c r="L20">
-        <v>1.018488975431174</v>
+        <v>0.8304290589726907</v>
       </c>
       <c r="M20">
-        <v>1.025649921329332</v>
+        <v>0.8398211655570619</v>
       </c>
       <c r="N20">
-        <v>1.021318297361228</v>
+        <v>0.8184608457812474</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.009892922296314</v>
+        <v>0.7063602245237007</v>
       </c>
       <c r="D21">
-        <v>1.012468457554481</v>
+        <v>0.7414748738037276</v>
       </c>
       <c r="E21">
-        <v>1.011859051104763</v>
+        <v>0.7523514208750925</v>
       </c>
       <c r="F21">
-        <v>1.018981283457426</v>
+        <v>0.7627995277042089</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025532803117369</v>
+        <v>1.026548431994065</v>
       </c>
       <c r="J21">
-        <v>1.016672423099287</v>
+        <v>0.7565796546761739</v>
       </c>
       <c r="K21">
-        <v>1.016138429948013</v>
+        <v>0.7638394043715854</v>
       </c>
       <c r="L21">
-        <v>1.015531411618825</v>
+        <v>0.7742586974173395</v>
       </c>
       <c r="M21">
-        <v>1.022625931653298</v>
+        <v>0.7842849098598197</v>
       </c>
       <c r="N21">
-        <v>1.018116214554045</v>
+        <v>0.7576540845667133</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.007592957184883</v>
+        <v>0.7063602245237007</v>
       </c>
       <c r="D22">
-        <v>1.010360237946963</v>
+        <v>0.7414748738037276</v>
       </c>
       <c r="E22">
-        <v>1.009840258897975</v>
+        <v>0.7523514208750925</v>
       </c>
       <c r="F22">
-        <v>1.016919432199577</v>
+        <v>0.7627995277042089</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025451089664297</v>
+        <v>1.026548431994065</v>
       </c>
       <c r="J22">
-        <v>1.014642597391404</v>
+        <v>0.7565796546761739</v>
       </c>
       <c r="K22">
-        <v>1.014171249072994</v>
+        <v>0.7638394043715854</v>
       </c>
       <c r="L22">
-        <v>1.013653396066155</v>
+        <v>0.7742586974173395</v>
       </c>
       <c r="M22">
-        <v>1.020703832652238</v>
+        <v>0.7842849098598197</v>
       </c>
       <c r="N22">
-        <v>1.016083506260832</v>
+        <v>0.7576540845667133</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.008814192145682</v>
+        <v>0.7063602245237007</v>
       </c>
       <c r="D23">
-        <v>1.01147969167195</v>
+        <v>0.7414748738037276</v>
       </c>
       <c r="E23">
-        <v>1.010912250239421</v>
+        <v>0.7523514208750925</v>
       </c>
       <c r="F23">
-        <v>1.018014470355108</v>
+        <v>0.7627995277042089</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025494796394572</v>
+        <v>1.026548431994065</v>
       </c>
       <c r="J23">
-        <v>1.015720528240352</v>
+        <v>0.7565796546761739</v>
       </c>
       <c r="K23">
-        <v>1.015215931313222</v>
+        <v>0.7638394043715854</v>
       </c>
       <c r="L23">
-        <v>1.014650758750639</v>
+        <v>0.7742586974173395</v>
       </c>
       <c r="M23">
-        <v>1.021724783882005</v>
+        <v>0.7842849098598197</v>
       </c>
       <c r="N23">
-        <v>1.017162967895226</v>
+        <v>0.7576540845667133</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013579007092239</v>
+        <v>0.7063602245237007</v>
       </c>
       <c r="D24">
-        <v>1.015846681956855</v>
+        <v>0.7414748738037276</v>
       </c>
       <c r="E24">
-        <v>1.01509357808482</v>
+        <v>0.7523514208750925</v>
       </c>
       <c r="F24">
-        <v>1.02228163235042</v>
+        <v>0.7627995277042089</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025658284838829</v>
+        <v>1.026548431994065</v>
       </c>
       <c r="J24">
-        <v>1.019923252659521</v>
+        <v>0.7565796546761739</v>
       </c>
       <c r="K24">
-        <v>1.019288611997271</v>
+        <v>0.7638394043715854</v>
       </c>
       <c r="L24">
-        <v>1.018538254858121</v>
+        <v>0.7742586974173395</v>
       </c>
       <c r="M24">
-        <v>1.025700274924807</v>
+        <v>0.7842849098598197</v>
       </c>
       <c r="N24">
-        <v>1.02137166066513</v>
+        <v>0.7576540845667133</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019024216851104</v>
+        <v>0.7063602245237007</v>
       </c>
       <c r="D25">
-        <v>1.020835722515038</v>
+        <v>0.7414748738037276</v>
       </c>
       <c r="E25">
-        <v>1.01986944020637</v>
+        <v>0.7523514208750925</v>
       </c>
       <c r="F25">
-        <v>1.02714688100957</v>
+        <v>0.7627995277042089</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025830493025523</v>
+        <v>1.026548431994065</v>
       </c>
       <c r="J25">
-        <v>1.024719944956365</v>
+        <v>0.7565796546761739</v>
       </c>
       <c r="K25">
-        <v>1.023936035037029</v>
+        <v>0.7638394043715854</v>
       </c>
       <c r="L25">
-        <v>1.022972891004643</v>
+        <v>0.7742586974173395</v>
       </c>
       <c r="M25">
-        <v>1.03022685523408</v>
+        <v>0.7842849098598197</v>
       </c>
       <c r="N25">
-        <v>1.026175164815224</v>
+        <v>0.7576540845667133</v>
       </c>
     </row>
   </sheetData>
